--- a/data/administracion_de_tribunales/casosCrimLey148.xlsx
+++ b/data/administracion_de_tribunales/casosCrimLey148.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9285DE4-9F31-4B4D-824B-CBA641E48F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D619C4-853A-4C06-891E-E08B2F503695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
     <sheet name="2021-2022" sheetId="1" r:id="rId2"/>
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
     <sheet name="2023-2024" sheetId="3" r:id="rId4"/>
+    <sheet name="2024-2025" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+  <si>
+    <t>Año fiscal/delitos</t>
+  </si>
   <si>
     <t>Pendiente al inicio</t>
   </si>
@@ -71,6 +75,9 @@
     <t>Pendiente al final</t>
   </si>
   <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
     <t>Acoso sexual</t>
   </si>
   <si>
@@ -95,12 +102,6 @@
     <t>Tentativa de incesto</t>
   </si>
   <si>
-    <t>Año fiscal/delitos</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
     <t>2021-2022</t>
   </si>
   <si>
@@ -108,13 +109,19 @@
   </si>
   <si>
     <t>2023-2024</t>
+  </si>
+  <si>
+    <t>2024-2025*</t>
+  </si>
+  <si>
+    <t>Tentativa de acoso sexual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,62 +438,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7383443E-485C-44BC-9522-B4048707806A}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.9">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -499,9 +506,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -526,9 +533,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>68</v>
@@ -557,9 +564,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>64</v>
@@ -588,9 +595,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
@@ -614,9 +621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>36</v>
@@ -645,9 +652,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
@@ -668,9 +675,9 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -693,9 +700,9 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -727,55 +734,55 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -796,9 +803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -828,9 +835,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>59</v>
@@ -857,9 +864,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -883,9 +890,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -918,9 +925,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -938,9 +945,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -958,9 +965,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -991,55 +998,55 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1051,9 +1058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>97</v>
@@ -1083,9 +1090,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>78</v>
@@ -1112,9 +1119,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1138,9 +1145,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>77</v>
@@ -1170,9 +1177,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1190,9 +1197,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1213,9 +1220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1246,55 +1253,55 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1312,9 +1319,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>93</v>
@@ -1341,9 +1348,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>68</v>
@@ -1370,9 +1377,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1396,9 +1403,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -1431,9 +1438,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1454,9 +1461,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1477,9 +1484,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1492,6 +1499,280 @@
       </c>
       <c r="J10">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435927E9-F5CA-4E9A-A388-6AE3446CA9C4}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>147</v>
+      </c>
+      <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>116</v>
+      </c>
+      <c r="K4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>115</v>
+      </c>
+      <c r="D7">
+        <v>182</v>
+      </c>
+      <c r="E7">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>110</v>
+      </c>
+      <c r="K7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
